--- a/src/project_time_allocation/task/data/input.xlsx
+++ b/src/project_time_allocation/task/data/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ste\Dev\project-time-allocation\src\project_time_allocation\task\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEEA818-9541-4DE4-87F8-B52B67D1547D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46254AA9-4B34-4840-8F87-7557749335AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="workers" sheetId="1" r:id="rId1"/>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,7 +1206,7 @@
         <v>19</v>
       </c>
       <c r="C2">
-        <v>12000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/src/project_time_allocation/task/data/input.xlsx
+++ b/src/project_time_allocation/task/data/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ste\Dev\project-time-allocation\src\project_time_allocation\task\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46254AA9-4B34-4840-8F87-7557749335AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1684CE52-BC96-49DF-86B1-E170B600EC51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="workers" sheetId="1" r:id="rId1"/>
@@ -907,8 +907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +948,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>1720</v>
+        <v>160</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -1177,7 +1177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F9BF4C-3C15-4EAD-A386-230B78CBF01D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
